--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-07_12-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,14 +427,1302 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39555</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="G3" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>509</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>966</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>873</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>672</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>348</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="F18" t="n">
+        <v>316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>528</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>989</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>384</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>385</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>374</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>370</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>407</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>330</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>122</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>319</v>
+      </c>
+      <c r="E27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="F27" t="n">
+        <v>217</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>294</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>695</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>266</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>263</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>156</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="F33" t="n">
+        <v>106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>194</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>289</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>169</v>
+      </c>
+      <c r="E35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>350</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>87</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>162</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>977</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>161</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>208</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>159</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>182</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>214</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>158</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>414</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="F44" t="n">
+        <v>140</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>154</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>147</v>
+      </c>
+      <c r="E47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>145</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>139</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>413</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>129</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -524,19 +1813,1325 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40965</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.51000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G3" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>509</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>966</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>873</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>672</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>348</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="F18" t="n">
+        <v>316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>528</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>989</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>384</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>385</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>374</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>370</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>407</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>330</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>122</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>319</v>
+      </c>
+      <c r="E27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="F27" t="n">
+        <v>217</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>294</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>695</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>266</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>263</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>156</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="F33" t="n">
+        <v>106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>194</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>289</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>169</v>
+      </c>
+      <c r="E35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>350</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>87</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>162</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>977</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>161</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>208</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>159</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>182</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>214</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>158</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>414</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="F44" t="n">
+        <v>140</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>154</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>147</v>
+      </c>
+      <c r="E47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>145</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>139</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>413</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>129</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
       <c r="D3" t="n">
-        <v>39555</v>
+        <v>43064</v>
       </c>
       <c r="E3" t="n">
-        <v>94.45</v>
+        <v>94.55</v>
       </c>
       <c r="F3" t="n">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4337,4 +4338,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4356,4 +4357,1565 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -2,46 +2,388 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13500" tabRatio="600" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="22">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,14 +392,265 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -65,8 +658,56 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -419,7 +1060,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -435,7 +1075,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1741,7 +2381,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3047,7 +3687,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4342,6 +4982,3924 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>509</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>966</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>873</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>672</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>348</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="F18" t="n">
+        <v>316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>528</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>989</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>384</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>385</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>374</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>370</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>407</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>330</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>122</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>319</v>
+      </c>
+      <c r="E27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="F27" t="n">
+        <v>217</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>294</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>695</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>266</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>263</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>156</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="F33" t="n">
+        <v>106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>194</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>289</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>169</v>
+      </c>
+      <c r="E35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>350</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>87</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>162</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>977</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>161</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>208</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>159</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>182</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>214</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>158</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>414</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="F44" t="n">
+        <v>140</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>154</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>147</v>
+      </c>
+      <c r="E47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>145</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>139</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>413</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>129</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>509</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>966</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>873</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>672</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>348</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="F18" t="n">
+        <v>316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>528</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>989</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>384</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>385</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>374</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>370</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>407</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>330</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>122</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>319</v>
+      </c>
+      <c r="E27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="F27" t="n">
+        <v>217</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>294</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>695</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>266</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>263</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>156</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="F33" t="n">
+        <v>106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>194</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>289</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>169</v>
+      </c>
+      <c r="E35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>350</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>87</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>162</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>977</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>161</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>208</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>159</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>182</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>214</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>158</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>414</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="F44" t="n">
+        <v>140</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>154</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>147</v>
+      </c>
+      <c r="E47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>145</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>139</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>413</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>129</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>509</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>877</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>966</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>873</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>672</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>348</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="F18" t="n">
+        <v>316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>528</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>989</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>384</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>385</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>374</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>370</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>407</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>330</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>122</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>319</v>
+      </c>
+      <c r="E27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="F27" t="n">
+        <v>217</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>294</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>290</v>
+      </c>
+      <c r="E29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>695</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>266</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>263</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>156</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="F33" t="n">
+        <v>106</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>194</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>289</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>169</v>
+      </c>
+      <c r="E35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>350</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>87</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>162</v>
+      </c>
+      <c r="E39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>977</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>161</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="F40" t="n">
+        <v>208</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>159</v>
+      </c>
+      <c r="E41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>182</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>214</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>158</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>414</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="F44" t="n">
+        <v>140</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>154</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>147</v>
+      </c>
+      <c r="E47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>145</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>139</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>413</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>129</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4357,1565 +8915,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>player_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lv</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>acc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>combo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DDRNGGin</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>55934</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E2" t="n">
-        <v>105424</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97.53</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2244</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>123ABC456789</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1087298</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>43064</v>
-      </c>
-      <c r="F3" t="n">
-        <v>94.55</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1188</v>
-      </c>
-      <c r="H3" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>leqek</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2062</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14629</v>
-      </c>
-      <c r="F4" t="n">
-        <v>91.47</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1960</v>
-      </c>
-      <c r="H4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beth66</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>92096</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6899</v>
-      </c>
-      <c r="F5" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>509</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DanceEvolution</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>29995</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5695</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>404</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>djfjxj</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>444268</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5620</v>
-      </c>
-      <c r="F7" t="n">
-        <v>90.81</v>
-      </c>
-      <c r="G7" t="n">
-        <v>877</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mcwyc</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21513</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5480</v>
-      </c>
-      <c r="F8" t="n">
-        <v>91.38</v>
-      </c>
-      <c r="G8" t="n">
-        <v>966</v>
-      </c>
-      <c r="H8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>123abd456789</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1425066</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4987</v>
-      </c>
-      <c r="F9" t="n">
-        <v>94.34999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>873</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>capes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>80378</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3080</v>
-      </c>
-      <c r="F10" t="n">
-        <v>94.87</v>
-      </c>
-      <c r="G10" t="n">
-        <v>778</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pegasus</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>36324</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2757</v>
-      </c>
-      <c r="F11" t="n">
-        <v>94.39</v>
-      </c>
-      <c r="G11" t="n">
-        <v>737</v>
-      </c>
-      <c r="H11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HXJ_ConveX</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>43231</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F12" t="n">
-        <v>92.67</v>
-      </c>
-      <c r="G12" t="n">
-        <v>718</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MgerSy</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1774</v>
-      </c>
-      <c r="F13" t="n">
-        <v>88.01000000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1226</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>YA_GAMMER</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>549520</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1451</v>
-      </c>
-      <c r="F14" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>672</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ziel</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>58395</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1394</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1188</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Koishi_Komeiji</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>891658</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1324</v>
-      </c>
-      <c r="F16" t="n">
-        <v>96.26000000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>348</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Eptaiiin</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>64004</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F17" t="n">
-        <v>85.33</v>
-      </c>
-      <c r="G17" t="n">
-        <v>142</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>kogachai</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>53510</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1086</v>
-      </c>
-      <c r="F18" t="n">
-        <v>94.63</v>
-      </c>
-      <c r="G18" t="n">
-        <v>316</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AngelSassin</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>35608</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1064</v>
-      </c>
-      <c r="F19" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>528</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>nezumihao</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>66285</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1049</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AnLs</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2672</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>603</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>989</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Saguihex</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>210616</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>384</v>
-      </c>
-      <c r="F22" t="n">
-        <v>88.98999999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>147</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>dweinberg355</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>55367</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>384</v>
-      </c>
-      <c r="F23" t="n">
-        <v>86.31</v>
-      </c>
-      <c r="G23" t="n">
-        <v>385</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TheDark-kun</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>20358</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>374</v>
-      </c>
-      <c r="F24" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="G24" t="n">
-        <v>186</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>krnekoalice</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>54509</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>370</v>
-      </c>
-      <c r="F25" t="n">
-        <v>95.92</v>
-      </c>
-      <c r="G25" t="n">
-        <v>407</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Seek</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3994</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>330</v>
-      </c>
-      <c r="F26" t="n">
-        <v>98.26000000000001</v>
-      </c>
-      <c r="G26" t="n">
-        <v>122</v>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>konakona</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>38281</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>319</v>
-      </c>
-      <c r="F27" t="n">
-        <v>89.69</v>
-      </c>
-      <c r="G27" t="n">
-        <v>217</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002200</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>57157</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>294</v>
-      </c>
-      <c r="F28" t="n">
-        <v>92.17</v>
-      </c>
-      <c r="G28" t="n">
-        <v>405</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Algodoo123</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>83002</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>290</v>
-      </c>
-      <c r="F29" t="n">
-        <v>97.81999999999999</v>
-      </c>
-      <c r="G29" t="n">
-        <v>695</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>himitu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>24203</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>266</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>254</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>rnmtq1111</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1309162</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>263</v>
-      </c>
-      <c r="F31" t="n">
-        <v>94.72</v>
-      </c>
-      <c r="G31" t="n">
-        <v>635</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>JustATest01</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>228038</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>206</v>
-      </c>
-      <c r="F32" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="G32" t="n">
-        <v>156</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1685525</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>85933</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>194</v>
-      </c>
-      <c r="F33" t="n">
-        <v>81.66</v>
-      </c>
-      <c r="G33" t="n">
-        <v>106</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Kenonian</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1063</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>194</v>
-      </c>
-      <c r="F34" t="n">
-        <v>79.09</v>
-      </c>
-      <c r="G34" t="n">
-        <v>289</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ryota</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>91365</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>169</v>
-      </c>
-      <c r="F35" t="n">
-        <v>98.05</v>
-      </c>
-      <c r="G35" t="n">
-        <v>350</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Kongo1913</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>30130</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>167</v>
-      </c>
-      <c r="F36" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="G36" t="n">
-        <v>87</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>BANIP</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4946</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>167</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>265</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>rustbell</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>992</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>164</v>
-      </c>
-      <c r="F38" t="n">
-        <v>79.06</v>
-      </c>
-      <c r="G38" t="n">
-        <v>188</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>henry13</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>23592</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>162</v>
-      </c>
-      <c r="F39" t="n">
-        <v>96.76000000000001</v>
-      </c>
-      <c r="G39" t="n">
-        <v>977</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SpaceCat900</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>999901</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>161</v>
-      </c>
-      <c r="F40" t="n">
-        <v>93.42</v>
-      </c>
-      <c r="G40" t="n">
-        <v>208</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>STYNGY</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2732</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>159</v>
-      </c>
-      <c r="F41" t="n">
-        <v>91.94</v>
-      </c>
-      <c r="G41" t="n">
-        <v>182</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Xeon1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>11757</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>159</v>
-      </c>
-      <c r="F42" t="n">
-        <v>92.08</v>
-      </c>
-      <c r="G42" t="n">
-        <v>214</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MaskdePoyo</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>60881</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>158</v>
-      </c>
-      <c r="F43" t="n">
-        <v>96.01000000000001</v>
-      </c>
-      <c r="G43" t="n">
-        <v>414</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SQkun</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>13094</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>156</v>
-      </c>
-      <c r="F44" t="n">
-        <v>76.97</v>
-      </c>
-      <c r="G44" t="n">
-        <v>140</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Thin76573</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>94016</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>155</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>yoshilove</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>154</v>
-      </c>
-      <c r="F46" t="n">
-        <v>79.29000000000001</v>
-      </c>
-      <c r="G46" t="n">
-        <v>98</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>asdf6797</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>76676</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>147</v>
-      </c>
-      <c r="F47" t="n">
-        <v>87.66</v>
-      </c>
-      <c r="G47" t="n">
-        <v>253</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Guilty-Crown</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>48223</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>146</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>173</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>00freeze00</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>36477</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>145</v>
-      </c>
-      <c r="F49" t="n">
-        <v>92.61</v>
-      </c>
-      <c r="G49" t="n">
-        <v>255</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TiKAL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>68828</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>139</v>
-      </c>
-      <c r="F50" t="n">
-        <v>100</v>
-      </c>
-      <c r="G50" t="n">
-        <v>413</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>zoe0000</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>6376</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>129</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>22</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -187,6 +188,9 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -383,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -503,6 +507,12 @@
         <color theme="4"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -652,9 +662,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8915,4 +8928,1565 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13500" tabRatio="600" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -10489,4 +10490,1565 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -15,6 +15,7 @@
     <sheet name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mode_1_2025-10-30_18-27" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2383,6 +2384,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13500" tabRatio="600" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mode_1_2025-10-30_18-27" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-30_18-27" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-11-02_01-39" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -3945,6 +3946,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-30_18-27" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-11-02_01-39" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-11-02_18-24" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5507,6 +5508,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13500" tabRatio="600" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-10-30_18-27" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-11-02_01-39" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_1_2025-11-02_18-24" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mode_1_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_1_2025-07-31_18-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_1_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_1_2025-10-08_13-40" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_1_2025-10-08_14-46" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_1_2025-10-08_14-57" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_1_2025-10-26_23-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_1_2025-10-28_18-59" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mode_1_2025-10-30_18-27" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mode_1_2025-11-02_01-39" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mode_1_2025-11-02_18-24" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mode_1_2025-11-04_18-18" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -7069,6 +7070,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -19,6 +19,7 @@
     <sheet name="mode_1_2025-11-02_01-39" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="mode_1_2025-11-02_18-24" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="mode_1_2025-11-04_18-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="mode_1_2025-11-05_18-06" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -8631,6 +8632,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -20,6 +20,7 @@
     <sheet name="mode_1_2025-11-02_18-24" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="mode_1_2025-11-04_18-18" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="mode_1_2025-11-05_18-06" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mode_1_2025-11-06_18-11" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -10193,6 +10194,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode1.xlsx
+++ b/mode1.xlsx
@@ -21,6 +21,7 @@
     <sheet name="mode_1_2025-11-04_18-18" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="mode_1_2025-11-05_18-06" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="mode_1_2025-11-06_18-11" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mode_1_2025-11-08_03-38" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -11755,6 +11756,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDRNGGin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55934</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43064</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DanceEvolution</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5695</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>djfjxj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>444268</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5620</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mcwyc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21513</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5480</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>capes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80378</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>36324</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="G12" t="n">
+        <v>718</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1226</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549520</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>672</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ziel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58395</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Koishi_Komeiji</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>891658</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>348</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eptaiiin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>64004</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>142</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kogachai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>53510</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AngelSassin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nezumihao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66285</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AnLs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>989</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saguihex</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>210616</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>384</v>
+      </c>
+      <c r="F22" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dweinberg355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>385</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TheDark-kun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>374</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>krnekoalice</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>370</v>
+      </c>
+      <c r="F25" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="G25" t="n">
+        <v>407</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seek</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konakona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38281</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>319</v>
+      </c>
+      <c r="F27" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>57157</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>294</v>
+      </c>
+      <c r="F28" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="G28" t="n">
+        <v>405</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Algodoo123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>290</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>695</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>himitu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rnmtq1111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1309162</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>263</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>635</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JustATest01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>228038</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>156</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1685525</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>85933</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>194</v>
+      </c>
+      <c r="F33" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kenonian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>79.09</v>
+      </c>
+      <c r="G34" t="n">
+        <v>289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>169</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>350</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kongo1913</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>188</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>henry13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>977</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SpaceCat900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>999901</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>208</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STYNGY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>159</v>
+      </c>
+      <c r="F41" t="n">
+        <v>91.94</v>
+      </c>
+      <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xeon1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>159</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>214</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MaskdePoyo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>60881</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>158</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>414</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>156</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>140</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>155</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yoshilove</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asdf6797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>147</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>253</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Guilty-Crown</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>173</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>255</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TiKAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>68828</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>413</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>zoe0000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
